--- a/TeamHunterLeoNickReport.xlsx
+++ b/TeamHunterLeoNickReport.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoou\OneDrive\Desktop\gedcom\GEDCOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CC26B9-DE80-4D34-95B0-129E2EE95807}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -30,436 +41,402 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
-    <t xml:space="preserve">Initials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdevlin@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdevlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouyang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">louyang2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruglord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicholas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cacchione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cacchionen@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NickCacchione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Repository:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/hdevlin/GEDCOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less then 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage after 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include input line numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include partial dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>hd</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Devlin</t>
+  </si>
+  <si>
+    <t>hdevlin@stevens.edu</t>
+  </si>
+  <si>
+    <t>hdevlin</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Ouyang</t>
+  </si>
+  <si>
+    <t>louyang2@stevens.edu</t>
+  </si>
+  <si>
+    <t>ruglord</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Cacchione</t>
+  </si>
+  <si>
+    <t>cacchionen@yahoo.com</t>
+  </si>
+  <si>
+    <t>NickCacchione</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/hdevlin/GEDCOM</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="M/D"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -477,7 +454,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -485,105 +462,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -642,17 +556,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -660,12 +594,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -675,24 +606,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -701,33 +639,37 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6/6/2016</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/19/2016</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7/3/2016</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7/17/2016</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7/31/2016</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -750,14 +692,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E32-409E-B28C-9E1A34726F62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -766,17 +718,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="29590013"/>
         <c:axId val="72854365"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="29590013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -793,21 +746,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="72854365"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="72854365"/>
         <c:scaling>
@@ -842,13 +796,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29590013"/>
@@ -857,7 +812,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -866,24 +821,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -891,12 +856,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -906,24 +868,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -932,30 +901,31 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Burndown!$A$2:$A$6</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2/19</c:v>
+                  <c:v>42053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>42061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>42068</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -967,22 +937,29 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CCC-4A52-A25A-610207F39092}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -991,17 +968,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="40545568"/>
         <c:axId val="67035374"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="40545568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1018,21 +996,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67035374"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="67035374"/>
         <c:scaling>
@@ -1067,13 +1046,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="40545568"/>
@@ -1082,7 +1062,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1091,20 +1071,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1118,14 +1104,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="3627720"/>
-        <a:ext cx="4916880" cy="2671200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1135,7 +1127,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>469080</xdr:colOff>
@@ -1148,9 +1140,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1166,12 +1164,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23040" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23040" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1191,7 +1189,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1199,15 +1198,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1218,15 +1217,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>2 stories per sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1234,7 +1233,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>113400</xdr:colOff>
@@ -1247,9 +1246,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1265,12 +1270,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23040" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23040" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1290,7 +1295,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1298,15 +1304,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>lines of code per hour is calcuated by Excel</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1314,7 +1320,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1239480</xdr:colOff>
@@ -1327,9 +1333,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1345,12 +1357,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23040" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23040" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1370,7 +1382,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1378,15 +1391,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Velocity of completing user stories (calculated)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1394,7 +1407,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>97920</xdr:colOff>
@@ -1407,9 +1420,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1425,12 +1444,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23040" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23040" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1450,7 +1469,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1458,15 +1478,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1477,15 +1497,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1493,7 +1513,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>20160</xdr:colOff>
@@ -1506,9 +1526,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1524,12 +1550,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23040" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23040" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1549,7 +1575,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1557,15 +1584,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>How long to implement the user stories in this sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1573,7 +1600,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>265680</xdr:colOff>
@@ -1586,9 +1613,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1604,12 +1637,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23040" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23040" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1629,7 +1662,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1637,15 +1671,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>When we expect to complete all user stories</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1657,7 +1691,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1671,14 +1705,20 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 1"/>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="1316520"/>
-        <a:ext cx="4809960" cy="2671200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1691,27 +1731,319 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.47"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,28 +2060,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1758,28 +2090,28 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1787,47 +2119,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="hdevlin@stevens.edu"/>
-    <hyperlink ref="D4" r:id="rId2" display="louyang2@stevens.edu"/>
-    <hyperlink ref="D5" r:id="rId3" display="cacchionen@yahoo.com"/>
-    <hyperlink ref="E8" r:id="rId4" display="https://github.com/hdevlin/GEDCOM"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.47"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="6" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1844,174 +2166,164 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.47"/>
+    <col min="1" max="1" width="10.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="7" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2034,157 +2346,149 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="9">
         <v>41065</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="10">
         <v>24</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="9">
         <v>41078</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="10">
         <v>18</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">C15-C16</f>
+      <c r="D16">
+        <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="10">
         <v>250</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="10">
         <v>120</v>
       </c>
-      <c r="G16" s="6" t="n">
-        <f aca="false">(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="6">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="9">
         <v>41092</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="10">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">C16-C17</f>
+      <c r="D17">
+        <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="10">
         <v>480</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="11">
         <v>135</v>
       </c>
-      <c r="G17" s="6" t="n">
-        <f aca="false">(E17-E16)/F17*60</f>
-        <v>102.222222222222</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="6">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="9">
         <v>41106</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="10">
         <v>6</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">C17-C18</f>
+      <c r="D18">
+        <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="10">
         <v>740</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="11">
         <v>160</v>
       </c>
-      <c r="G18" s="6" t="n">
-        <f aca="false">(E18-E17)/F18*60</f>
+      <c r="G18" s="6">
+        <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="9">
         <v>41120</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">C18-C19</f>
+      <c r="D19">
+        <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="10">
         <v>1100</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>145</v>
       </c>
-      <c r="G19" s="6" t="n">
-        <f aca="false">(E19-E18)/F19*60</f>
-        <v>148.965517241379</v>
+      <c r="G19" s="6">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.47"/>
+    <col min="1" max="1" width="10.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="7" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -2204,56 +2508,79 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>42053</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>24</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42061</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>475</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="e">
+        <f>D3/(E3/60)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42068</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.47"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2282,190 +2609,182 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>20</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>120</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>120</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>120</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>120</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>121</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>122</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="3">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.47"/>
+    <col min="1" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2495,33 +2814,25 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.47"/>
+    <col min="1" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2551,33 +2862,25 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.47"/>
+    <col min="1" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2607,36 +2910,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="49.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.47"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
+    <col min="4" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2647,264 +2942,264 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="30.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="44.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="30.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="56.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>97</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="56.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>105</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>114</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2912,12 +3207,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TeamHunterLeoNickReport.xlsx
+++ b/TeamHunterLeoNickReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoou\OneDrive\Desktop\gedcom\GEDCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CC26B9-DE80-4D34-95B0-129E2EE95807}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB8D68-903B-4F72-9C3D-81E5B39987D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
   <si>
     <t>Initials</t>
   </si>
@@ -317,27 +317,18 @@
     <t>Include input line numbers</t>
   </si>
   <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
     <t>US15</t>
   </si>
   <si>
     <t>Include partial dates</t>
   </si>
   <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
     <t>US16</t>
   </si>
   <si>
     <t>Reject illegitimate dates</t>
   </si>
   <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
     <t>US17</t>
   </si>
   <si>
@@ -405,17 +396,51 @@
   </si>
   <si>
     <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Things we did well</t>
+  </si>
+  <si>
+    <t>Things we did poorly</t>
+  </si>
+  <si>
+    <t>Everything was completed in a timely manner.</t>
+  </si>
+  <si>
+    <t>Tasks were diveded well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Better communication </t>
+  </si>
+  <si>
+    <t>Buggy code</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -437,6 +462,17 @@
       <sz val="12"/>
       <name val="Cambria"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -465,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -492,6 +528,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2133,17 +2172,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6328125" customWidth="1"/>
     <col min="5" max="5" width="7.6328125" customWidth="1"/>
     <col min="6" max="1025" width="10.453125" customWidth="1"/>
@@ -2180,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2197,7 +2236,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2214,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2231,7 +2270,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2248,7 +2287,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2265,6 +2304,108 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2278,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -2473,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2533,11 +2674,11 @@
         <v>475</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="e">
+        <v>180</v>
+      </c>
+      <c r="F3" s="6">
         <f>D3/(E3/60)</f>
-        <v>#DIV/0!</v>
+        <v>158.33333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2560,10 +2701,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2577,10 +2718,13 @@
     <col min="7" max="7" width="6.6328125" customWidth="1"/>
     <col min="8" max="8" width="7.6328125" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" style="5" customWidth="1"/>
-    <col min="10" max="1025" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2608,8 +2752,14 @@
       <c r="I1" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2620,7 +2770,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2629,13 +2779,22 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5">
+        <v>42061</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2646,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -2655,13 +2814,22 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>120</v>
-      </c>
-      <c r="H3" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5">
+        <v>42061</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2672,7 +2840,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2681,13 +2849,16 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>120</v>
-      </c>
-      <c r="H4" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5">
+        <v>42061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2698,7 +2869,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -2707,13 +2878,16 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>120</v>
-      </c>
-      <c r="H5" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5">
+        <v>42061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2724,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2733,13 +2907,16 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>121</v>
-      </c>
-      <c r="H6" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5">
+        <v>42061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2750,7 +2927,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -2759,29 +2936,34 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>122</v>
-      </c>
-      <c r="H7" s="3">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5">
+        <v>42061</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
@@ -2813,9 +2995,153 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="I2" s="18">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3" s="18">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" s="18">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="18">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="18">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="I7" s="18">
+        <v>42068</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2919,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3074,7 +3400,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
@@ -3082,7 +3408,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3093,37 +3419,37 @@
         <v>91</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B16" t="s">
         <v>93</v>
       </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>89</v>
@@ -3131,79 +3457,79 @@
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/TeamHunterLeoNickReport.xlsx
+++ b/TeamHunterLeoNickReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoou\OneDrive\Desktop\gedcom\GEDCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB8D68-903B-4F72-9C3D-81E5B39987D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C4E52-885D-41BE-942B-A65C94341135}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="130">
   <si>
     <t>Initials</t>
   </si>
@@ -438,7 +438,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="m/d;@"/>
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -505,7 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -530,7 +529,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,10 +950,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$6</c:f>
+              <c:f>Burndown!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42053</c:v>
                 </c:pt>
@@ -961,17 +961,17 @@
                   <c:v>42061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42068</c:v>
+                  <c:v>42089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$6</c:f>
+              <c:f>Burndown!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
                 </c:pt>
@@ -1735,13 +1735,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>75240</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>160920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>397800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2123,7 +2123,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2175,7 +2175,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2283,7 +2283,7 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
@@ -2300,7 +2300,7 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
@@ -2321,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2338,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2355,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2372,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2389,14 +2389,14 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>84</v>
       </c>
       <c r="C13" t="s">
@@ -2406,7 +2406,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2419,48 +2419,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" customWidth="1"/>
     <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
     <col min="7" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2483,122 +2483,122 @@
       <c r="F14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>41065</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>24</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>0</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>41078</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>250</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>120</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>41092</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>12</v>
       </c>
       <c r="D17">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>480</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>135</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f>(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>41106</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>6</v>
       </c>
       <c r="D18">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>740</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>160</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>41120</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>0</v>
       </c>
       <c r="D19">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>1100</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>145</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
@@ -2615,22 +2615,22 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.6328125" customWidth="1"/>
     <col min="3" max="3" width="12.453125" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" customWidth="1"/>
     <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
     <col min="7" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2645,12 +2645,12 @@
       <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>42053</v>
       </c>
       <c r="B2">
@@ -2661,7 +2661,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>42061</v>
       </c>
       <c r="B3">
@@ -2676,20 +2676,30 @@
       <c r="E3">
         <v>180</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>D3/(E3/60)</f>
         <v>158.33333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>42068</v>
+      <c r="A4" s="4">
+        <v>42089</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
       <c r="C4">
         <v>6</v>
+      </c>
+      <c r="D4">
+        <v>559</v>
+      </c>
+      <c r="E4">
+        <v>270</v>
+      </c>
+      <c r="F4" s="5">
+        <f>D4/(E4/60)</f>
+        <v>124.22222222222223</v>
       </c>
     </row>
   </sheetData>
@@ -2704,20 +2714,20 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K1" sqref="K1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="11" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" customWidth="1"/>
     <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="6.81640625" customWidth="1"/>
     <col min="6" max="6" width="7.453125" customWidth="1"/>
     <col min="7" max="7" width="6.6328125" customWidth="1"/>
     <col min="8" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.453125" customWidth="1"/>
     <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.26953125" bestFit="1" customWidth="1"/>
@@ -2728,7 +2738,7 @@
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2737,25 +2747,25 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2784,13 +2794,13 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>42061</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2819,13 +2829,13 @@
       <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>42061</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2854,7 +2864,7 @@
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>42061</v>
       </c>
     </row>
@@ -2883,7 +2893,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>42061</v>
       </c>
     </row>
@@ -2894,7 +2904,7 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
@@ -2912,7 +2922,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>42061</v>
       </c>
     </row>
@@ -2923,7 +2933,7 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
@@ -2941,7 +2951,7 @@
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>42061</v>
       </c>
     </row>
@@ -2953,24 +2963,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="1025" width="10.453125" customWidth="1"/>
+    <col min="3" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2979,23 +2991,29 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -3006,7 +3024,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3014,12 +3032,23 @@
       <c r="F2">
         <v>60</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="I2" s="18">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2" s="18">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" s="17">
+        <v>42089</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -3030,7 +3059,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -3038,12 +3067,21 @@
       <c r="F3">
         <v>60</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="I3" s="18">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="18">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="17">
+        <v>42089</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -3054,7 +3092,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3062,12 +3100,17 @@
       <c r="F4">
         <v>60</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="I4" s="18">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="18">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3078,7 +3121,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -3086,23 +3129,28 @@
       <c r="F5">
         <v>60</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="I5" s="18">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="G5" s="18">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5" s="17">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -3110,23 +3158,28 @@
       <c r="F6">
         <v>60</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="18">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="18">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6" s="17">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>84</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -3134,9 +3187,14 @@
       <c r="F7">
         <v>60</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="18">
-        <v>42068</v>
+      <c r="G7" s="18">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="I7" s="17">
+        <v>42089</v>
       </c>
     </row>
   </sheetData>
@@ -3147,22 +3205,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3171,20 +3231,140 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3210,7 +3390,7 @@
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3219,19 +3399,19 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3246,14 +3426,14 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="11" customWidth="1"/>
     <col min="4" max="1025" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3264,7 +3444,7 @@
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3275,7 +3455,7 @@
       <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3286,7 +3466,7 @@
       <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3297,7 +3477,7 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3308,7 +3488,7 @@
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3319,7 +3499,7 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3330,7 +3510,7 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3341,7 +3521,7 @@
       <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3352,7 +3532,7 @@
       <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3363,7 +3543,7 @@
       <c r="B10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3374,7 +3554,7 @@
       <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3385,62 +3565,62 @@
       <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>92</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3451,7 +3631,7 @@
       <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3462,7 +3642,7 @@
       <c r="B19" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3473,7 +3653,7 @@
       <c r="B20" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3484,7 +3664,7 @@
       <c r="B21" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3495,7 +3675,7 @@
       <c r="B22" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3506,7 +3686,7 @@
       <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3517,7 +3697,7 @@
       <c r="B24" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3528,7 +3708,7 @@
       <c r="B25" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>118</v>
       </c>
     </row>
